--- a/ocms/src/test/resources/DownloadedFiles/VIP List Management.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/VIP List Management.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t xml:space="preserve">Caller ID</t>
   </si>
@@ -205,22 +205,25 @@
     <t xml:space="preserve">VIP</t>
   </si>
   <si>
-    <t xml:space="preserve">05/11/2019 14:56:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">12/11/2019 10:35:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aravinda@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">santu18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/11/2019 14:53:18</t>
+    <t xml:space="preserve">Aravind94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/11/2019 10:31:33</t>
   </si>
 </sst>
 </file>
@@ -581,22 +584,22 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
@@ -611,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
